--- a/biology/Zoologie/Hemisus_marmoratus/Hemisus_marmoratus.xlsx
+++ b/biology/Zoologie/Hemisus_marmoratus/Hemisus_marmoratus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemisus marmoratus est une espèce d'amphibiens de la famille des Hemisotidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemisus marmoratus est une espèce d'amphibiens de la famille des Hemisotidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce rencontre en Afrique subsaharienne jusqu'à 1 850 m d'altitude dans la savane herbeuse[1]. Elle a été observée au Sénégal, en Gambie, en Guinée-Bissau, au Burkina Faso, au Ghana, au Togo, au Bénin, au Nigeria, au Cameroun, au Tchad, en Centrafrique, dans l'ouest de l'Éthiopie, dans l'Ouest de l'Érythrée, dans le sud de la Somalie, en Kenya, en Tanzanie, au Malawi, au Mozambique, au Swaziland, dans le nord-est de l'Afrique du Sud, au Zimbabwe, en Zambie et en Namibie[2].
-Il existe une population apparemment isolée au sud du lac Tana en Éthiopie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce rencontre en Afrique subsaharienne jusqu'à 1 850 m d'altitude dans la savane herbeuse. Elle a été observée au Sénégal, en Gambie, en Guinée-Bissau, au Burkina Faso, au Ghana, au Togo, au Bénin, au Nigeria, au Cameroun, au Tchad, en Centrafrique, dans l'ouest de l'Éthiopie, dans l'Ouest de l'Érythrée, dans le sud de la Somalie, en Kenya, en Tanzanie, au Malawi, au Mozambique, au Swaziland, dans le nord-est de l'Afrique du Sud, au Zimbabwe, en Zambie et en Namibie.
+Il existe une population apparemment isolée au sud du lac Tana en Éthiopie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 22 à 34 mm et les femelles de 37 à 49 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 22 à 34 mm et les femelles de 37 à 49 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Hemisus marmoratus sudanensis pourrait être une espèce distincte[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Hemisus marmoratus sudanensis pourrait être une espèce distincte.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peters, 1854 : Diagnosen neuer Batrachier, welche zusammen mit der früher (24. Juli und 17. August) gegebenen Übersicht der Schlangen und Eidechsen mitgetheilt werden. Bericht über die zur Bekanntmachung geeigneten Verhandlungen der Königlich preussischen Akademie der Wissenschaften zu Berlin, vol. 1854, p. 614-628 (texte intégral).</t>
         </is>
